--- a/data/pca/factorExposure/factorExposure_2016-02-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-02-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01273412237291052</v>
+        <v>-0.01625337304225966</v>
       </c>
       <c r="C2">
-        <v>-0.05891248013314605</v>
+        <v>0.04578759616973815</v>
       </c>
       <c r="D2">
-        <v>0.0652712028677243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.08124572889010181</v>
+      </c>
+      <c r="E2">
+        <v>-0.1245141580550577</v>
+      </c>
+      <c r="F2">
+        <v>0.0332949162811554</v>
+      </c>
+      <c r="G2">
+        <v>0.04734507643069214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03454142466306581</v>
+        <v>-0.02128991722722894</v>
       </c>
       <c r="C3">
-        <v>-0.1217063503888262</v>
+        <v>0.06377634603137285</v>
       </c>
       <c r="D3">
-        <v>0.07398889240605677</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07872947832459039</v>
+      </c>
+      <c r="E3">
+        <v>-0.09417284371629697</v>
+      </c>
+      <c r="F3">
+        <v>-0.03312583663489177</v>
+      </c>
+      <c r="G3">
+        <v>0.1057021734646612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06092988073284505</v>
+        <v>-0.06155021753072901</v>
       </c>
       <c r="C4">
-        <v>-0.06404194635031686</v>
+        <v>0.06444601839356813</v>
       </c>
       <c r="D4">
-        <v>0.04769172965179362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08099706106307811</v>
+      </c>
+      <c r="E4">
+        <v>-0.1087090464488547</v>
+      </c>
+      <c r="F4">
+        <v>-0.03682414137452873</v>
+      </c>
+      <c r="G4">
+        <v>-0.03686307851887575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.04339683003808233</v>
+        <v>-0.0406324030976144</v>
       </c>
       <c r="C6">
-        <v>-0.03864027439504113</v>
+        <v>0.02881772487126284</v>
       </c>
       <c r="D6">
-        <v>0.04417088305267553</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.08245194379971953</v>
+      </c>
+      <c r="E6">
+        <v>-0.09499927094800263</v>
+      </c>
+      <c r="F6">
+        <v>-0.02386927602683341</v>
+      </c>
+      <c r="G6">
+        <v>0.001878057429940456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.03154227573217053</v>
+        <v>-0.0239636586845695</v>
       </c>
       <c r="C7">
-        <v>-0.03386486673238703</v>
+        <v>0.035879311829925</v>
       </c>
       <c r="D7">
-        <v>0.03149461801727998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.06264370357812243</v>
+      </c>
+      <c r="E7">
+        <v>-0.09093462360313954</v>
+      </c>
+      <c r="F7">
+        <v>-0.0152685701322357</v>
+      </c>
+      <c r="G7">
+        <v>-0.05126104487329149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.01078680591239329</v>
+        <v>-0.008921190937221157</v>
       </c>
       <c r="C8">
-        <v>-0.04841717175829343</v>
+        <v>0.03901766222173927</v>
       </c>
       <c r="D8">
-        <v>0.03743082210609058</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.05329573848126703</v>
+      </c>
+      <c r="E8">
+        <v>-0.06799169719448707</v>
+      </c>
+      <c r="F8">
+        <v>-0.01544181097336635</v>
+      </c>
+      <c r="G8">
+        <v>0.01549541654486038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.04163784727579036</v>
+        <v>-0.04433947718472384</v>
       </c>
       <c r="C9">
-        <v>-0.04613642893709104</v>
+        <v>0.05134103452499649</v>
       </c>
       <c r="D9">
-        <v>0.04072941011374853</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06807921156149664</v>
+      </c>
+      <c r="E9">
+        <v>-0.0875093949107167</v>
+      </c>
+      <c r="F9">
+        <v>-0.01200231073595437</v>
+      </c>
+      <c r="G9">
+        <v>-0.04315271227821084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08086368510810929</v>
+        <v>-0.1060843152973096</v>
       </c>
       <c r="C10">
-        <v>0.1862287354107584</v>
+        <v>-0.1998537629102034</v>
       </c>
       <c r="D10">
-        <v>0.01222517315294184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.005274542298013363</v>
+      </c>
+      <c r="E10">
+        <v>-0.04355269555139174</v>
+      </c>
+      <c r="F10">
+        <v>-0.003909450594001826</v>
+      </c>
+      <c r="G10">
+        <v>-0.03202742022197943</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04637005740209339</v>
+        <v>-0.03881511592055973</v>
       </c>
       <c r="C11">
-        <v>-0.05305246170083105</v>
+        <v>0.04908630548011919</v>
       </c>
       <c r="D11">
-        <v>0.02927503517055549</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04409648337888767</v>
+      </c>
+      <c r="E11">
+        <v>-0.0381269851998559</v>
+      </c>
+      <c r="F11">
+        <v>-0.01426162235504399</v>
+      </c>
+      <c r="G11">
+        <v>-0.03758481650381371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.0491017392268543</v>
+        <v>-0.04115161583174812</v>
       </c>
       <c r="C12">
-        <v>-0.04739379104594247</v>
+        <v>0.04716153914784772</v>
       </c>
       <c r="D12">
-        <v>0.01425905691211639</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.03713218025765233</v>
+      </c>
+      <c r="E12">
+        <v>-0.04862304991899041</v>
+      </c>
+      <c r="F12">
+        <v>-0.006927290936002869</v>
+      </c>
+      <c r="G12">
+        <v>-0.03230736172577231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01708398063486186</v>
+        <v>-0.0170233488025315</v>
       </c>
       <c r="C13">
-        <v>-0.05698000295524799</v>
+        <v>0.04483730573307541</v>
       </c>
       <c r="D13">
-        <v>0.02988544784493283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.07622191169411333</v>
+      </c>
+      <c r="E13">
+        <v>-0.1305983102064804</v>
+      </c>
+      <c r="F13">
+        <v>-0.02365022795580713</v>
+      </c>
+      <c r="G13">
+        <v>-0.04203532381111406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01632981304014874</v>
+        <v>-0.009544763654326207</v>
       </c>
       <c r="C14">
-        <v>-0.0312184883976278</v>
+        <v>0.03014270844904184</v>
       </c>
       <c r="D14">
-        <v>0.01905101406514401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0489300963820563</v>
+      </c>
+      <c r="E14">
+        <v>-0.08250842148986011</v>
+      </c>
+      <c r="F14">
+        <v>0.009372944172126961</v>
+      </c>
+      <c r="G14">
+        <v>-0.02951097228999005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0004746462360052624</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006512050742843995</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01178032523373028</v>
+      </c>
+      <c r="E15">
+        <v>-0.01198056678846225</v>
+      </c>
+      <c r="F15">
+        <v>0.0005194567128613395</v>
+      </c>
+      <c r="G15">
+        <v>0.001173256241039983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.04491026499799317</v>
+        <v>-0.03782065618847557</v>
       </c>
       <c r="C16">
-        <v>-0.05032019840189354</v>
+        <v>0.04678155255804406</v>
       </c>
       <c r="D16">
-        <v>0.01989268667244812</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.04024073191314759</v>
+      </c>
+      <c r="E16">
+        <v>-0.05115129904432999</v>
+      </c>
+      <c r="F16">
+        <v>0.003765578907972638</v>
+      </c>
+      <c r="G16">
+        <v>-0.02954994957861691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02548623044966871</v>
+        <v>-0.01781952370095153</v>
       </c>
       <c r="C19">
-        <v>-0.05964810783296352</v>
+        <v>0.0446624174256474</v>
       </c>
       <c r="D19">
-        <v>0.09411834612507788</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.103511676168082</v>
+      </c>
+      <c r="E19">
+        <v>-0.1218714747619721</v>
+      </c>
+      <c r="F19">
+        <v>0.01464162289476228</v>
+      </c>
+      <c r="G19">
+        <v>0.008328068366543512</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.02244151187570165</v>
+        <v>-0.01782432824551729</v>
       </c>
       <c r="C20">
-        <v>-0.05026436558096455</v>
+        <v>0.04184845763745315</v>
       </c>
       <c r="D20">
-        <v>0.02605720832788751</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.05684668021813784</v>
+      </c>
+      <c r="E20">
+        <v>-0.0983617307802946</v>
+      </c>
+      <c r="F20">
+        <v>-0.005289783566919617</v>
+      </c>
+      <c r="G20">
+        <v>-0.01776661381082964</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.02197912250228743</v>
+        <v>-0.01744919526689923</v>
       </c>
       <c r="C21">
-        <v>-0.05893284178368788</v>
+        <v>0.0483016263383521</v>
       </c>
       <c r="D21">
-        <v>0.04534704267210473</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0838870901599254</v>
+      </c>
+      <c r="E21">
+        <v>-0.1531306646655007</v>
+      </c>
+      <c r="F21">
+        <v>0.0178372161163524</v>
+      </c>
+      <c r="G21">
+        <v>-0.05512814012062613</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.00093497459510924</v>
+        <v>-0.005238391594541045</v>
       </c>
       <c r="C22">
-        <v>-0.0145596253325837</v>
+        <v>0.03078633248895248</v>
       </c>
       <c r="D22">
-        <v>0.02781095786224733</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.06929518273459426</v>
+      </c>
+      <c r="E22">
+        <v>-0.07588805872128448</v>
+      </c>
+      <c r="F22">
+        <v>-0.06886779672352289</v>
+      </c>
+      <c r="G22">
+        <v>0.04808837813169747</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0009289282490418458</v>
+        <v>-0.005358243347431659</v>
       </c>
       <c r="C23">
-        <v>-0.01457616188403089</v>
+        <v>0.03084370958622292</v>
       </c>
       <c r="D23">
-        <v>0.02765031530719801</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06861958337509223</v>
+      </c>
+      <c r="E23">
+        <v>-0.07606058449615513</v>
+      </c>
+      <c r="F23">
+        <v>-0.0688645549300749</v>
+      </c>
+      <c r="G23">
+        <v>0.04738439627989909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.04160272700776448</v>
+        <v>-0.03878365143011066</v>
       </c>
       <c r="C24">
-        <v>-0.05135612222438652</v>
+        <v>0.05464904746742161</v>
       </c>
       <c r="D24">
-        <v>0.02427209619465249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.04131587530490688</v>
+      </c>
+      <c r="E24">
+        <v>-0.05646608504717093</v>
+      </c>
+      <c r="F24">
+        <v>-0.001015440783430882</v>
+      </c>
+      <c r="G24">
+        <v>-0.04404132412629449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.05179546171404279</v>
+        <v>-0.04514365701864106</v>
       </c>
       <c r="C25">
-        <v>-0.05611895406957548</v>
+        <v>0.05478858354903145</v>
       </c>
       <c r="D25">
-        <v>0.01984066647060699</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.03805754331812766</v>
+      </c>
+      <c r="E25">
+        <v>-0.04906982839895738</v>
+      </c>
+      <c r="F25">
+        <v>-0.01688186687650888</v>
+      </c>
+      <c r="G25">
+        <v>-0.04828865241290344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02289922329851602</v>
+        <v>-0.01950640628576406</v>
       </c>
       <c r="C26">
-        <v>-0.01569241211981317</v>
+        <v>0.01763783080560297</v>
       </c>
       <c r="D26">
-        <v>0.02393874680860674</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04315761611666823</v>
+      </c>
+      <c r="E26">
+        <v>-0.0651518625415817</v>
+      </c>
+      <c r="F26">
+        <v>0.01128114562491634</v>
+      </c>
+      <c r="G26">
+        <v>-0.007639444068064503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.101885687228179</v>
+        <v>-0.1452415749702742</v>
       </c>
       <c r="C28">
-        <v>0.2577160089621991</v>
+        <v>-0.2576120079673027</v>
       </c>
       <c r="D28">
-        <v>-0.002712283232492497</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02031125426071302</v>
+      </c>
+      <c r="E28">
+        <v>-0.06803370879106424</v>
+      </c>
+      <c r="F28">
+        <v>-0.003916612552605499</v>
+      </c>
+      <c r="G28">
+        <v>-0.06776364853096821</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01110788934813874</v>
+        <v>-0.00845686768454018</v>
       </c>
       <c r="C29">
-        <v>-0.027262764607105</v>
+        <v>0.02721027918569179</v>
       </c>
       <c r="D29">
-        <v>0.008808129155682461</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.04152039059780285</v>
+      </c>
+      <c r="E29">
+        <v>-0.08211177705267096</v>
+      </c>
+      <c r="F29">
+        <v>-0.001732932654154357</v>
+      </c>
+      <c r="G29">
+        <v>-0.03732479136025927</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.0440824242897992</v>
+        <v>-0.04418870579659496</v>
       </c>
       <c r="C30">
-        <v>-0.04532797366019548</v>
+        <v>0.05470439473999957</v>
       </c>
       <c r="D30">
-        <v>0.09717690261353543</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1279968005129222</v>
+      </c>
+      <c r="E30">
+        <v>-0.1093502490487123</v>
+      </c>
+      <c r="F30">
+        <v>-0.003486269684955372</v>
+      </c>
+      <c r="G30">
+        <v>0.02472839976884416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.06760661795576565</v>
+        <v>-0.06380774795356221</v>
       </c>
       <c r="C31">
-        <v>-0.05008558196162148</v>
+        <v>0.06278645405119854</v>
       </c>
       <c r="D31">
-        <v>-0.01973345245851675</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.007463591761565261</v>
+      </c>
+      <c r="E31">
+        <v>-0.08086765003951348</v>
+      </c>
+      <c r="F31">
+        <v>-0.04436439564005046</v>
+      </c>
+      <c r="G31">
+        <v>-0.03020857055692931</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0007476030681869368</v>
+        <v>-0.007361234074442623</v>
       </c>
       <c r="C32">
-        <v>-0.0373285486858551</v>
+        <v>0.0341738695827004</v>
       </c>
       <c r="D32">
-        <v>0.04259282600466475</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05902249320036652</v>
+      </c>
+      <c r="E32">
+        <v>-0.108645229460026</v>
+      </c>
+      <c r="F32">
+        <v>0.0231609508624931</v>
+      </c>
+      <c r="G32">
+        <v>-0.05241195025246452</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03825380089401213</v>
+        <v>-0.03127946492472318</v>
       </c>
       <c r="C33">
-        <v>-0.05822679363797494</v>
+        <v>0.05201084265574941</v>
       </c>
       <c r="D33">
-        <v>0.06753095961467978</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.09733682606378335</v>
+      </c>
+      <c r="E33">
+        <v>-0.1059623413261885</v>
+      </c>
+      <c r="F33">
+        <v>-0.02029024307744094</v>
+      </c>
+      <c r="G33">
+        <v>-0.03399104893013495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04530502284584864</v>
+        <v>-0.03994614970404552</v>
       </c>
       <c r="C34">
-        <v>-0.0651286087133966</v>
+        <v>0.06328526827036571</v>
       </c>
       <c r="D34">
-        <v>0.03479583220723545</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04694180677000546</v>
+      </c>
+      <c r="E34">
+        <v>-0.03856902149807011</v>
+      </c>
+      <c r="F34">
+        <v>-0.00373148897155479</v>
+      </c>
+      <c r="G34">
+        <v>-0.05125913885641404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-5.296189449348305e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0005796788844227742</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0004878826909464225</v>
+      </c>
+      <c r="E35">
+        <v>0.0006080156763911638</v>
+      </c>
+      <c r="F35">
+        <v>2.819497447918739e-05</v>
+      </c>
+      <c r="G35">
+        <v>-3.745928616673305e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02360975217551238</v>
+        <v>-0.01944167871461303</v>
       </c>
       <c r="C36">
-        <v>-0.01837203012460199</v>
+        <v>0.01554302340328743</v>
       </c>
       <c r="D36">
-        <v>0.01591359601720681</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04443397955450702</v>
+      </c>
+      <c r="E36">
+        <v>-0.07586459518339338</v>
+      </c>
+      <c r="F36">
+        <v>-0.005132460808667512</v>
+      </c>
+      <c r="G36">
+        <v>-0.02877336141716319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03352045672118327</v>
+        <v>-0.02516850045550043</v>
       </c>
       <c r="C38">
-        <v>-0.03306460697664551</v>
+        <v>0.02620548175932741</v>
       </c>
       <c r="D38">
-        <v>0.0001092523674418035</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.03734181421060748</v>
+      </c>
+      <c r="E38">
+        <v>-0.06321744436448491</v>
+      </c>
+      <c r="F38">
+        <v>-0.006786196259058921</v>
+      </c>
+      <c r="G38">
+        <v>0.01487933364143761</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.05362718899467606</v>
+        <v>-0.0460770962172484</v>
       </c>
       <c r="C39">
-        <v>-0.06288454783121859</v>
+        <v>0.06367842848474424</v>
       </c>
       <c r="D39">
-        <v>0.04199874264274544</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.07274246767520473</v>
+      </c>
+      <c r="E39">
+        <v>-0.06179761093954045</v>
+      </c>
+      <c r="F39">
+        <v>0.01786744827303852</v>
+      </c>
+      <c r="G39">
+        <v>-0.02925014737275197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01471695320811908</v>
+        <v>-0.01661463745066873</v>
       </c>
       <c r="C40">
-        <v>-0.05721099193577842</v>
+        <v>0.0421403392461899</v>
       </c>
       <c r="D40">
-        <v>0.02138924474214429</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.05035416021368679</v>
+      </c>
+      <c r="E40">
+        <v>-0.1218542293392087</v>
+      </c>
+      <c r="F40">
+        <v>-0.03480309411409915</v>
+      </c>
+      <c r="G40">
+        <v>0.001335774314646503</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02729389694326869</v>
+        <v>-0.02235343104247865</v>
       </c>
       <c r="C41">
-        <v>-0.0143110889447988</v>
+        <v>0.01106044376565338</v>
       </c>
       <c r="D41">
-        <v>0.01422347464332424</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.02946971319274816</v>
+      </c>
+      <c r="E41">
+        <v>-0.07632846658491362</v>
+      </c>
+      <c r="F41">
+        <v>-0.001077692420704409</v>
+      </c>
+      <c r="G41">
+        <v>-0.02109843986051513</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04898880761764045</v>
+        <v>-0.03372676897936842</v>
       </c>
       <c r="C43">
-        <v>-0.03455457054414377</v>
+        <v>0.02481428980234403</v>
       </c>
       <c r="D43">
-        <v>0.03245763094497527</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.05850954867402077</v>
+      </c>
+      <c r="E43">
+        <v>-0.08856040289712681</v>
+      </c>
+      <c r="F43">
+        <v>-0.02498293051162084</v>
+      </c>
+      <c r="G43">
+        <v>-0.03193928474719689</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0190140100326948</v>
+        <v>-0.02020292419559728</v>
       </c>
       <c r="C44">
-        <v>-0.06529416273500264</v>
+        <v>0.04769740976672286</v>
       </c>
       <c r="D44">
-        <v>0.01334393806320537</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.05347379384960992</v>
+      </c>
+      <c r="E44">
+        <v>-0.109700210663511</v>
+      </c>
+      <c r="F44">
+        <v>0.01297489216001827</v>
+      </c>
+      <c r="G44">
+        <v>-0.02342136467197389</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01727490736800978</v>
+        <v>-0.01547880116123673</v>
       </c>
       <c r="C46">
-        <v>-0.02799666738303658</v>
+        <v>0.0309368979638752</v>
       </c>
       <c r="D46">
-        <v>0.002855448215837606</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03698738739640758</v>
+      </c>
+      <c r="E46">
+        <v>-0.08849125412144465</v>
+      </c>
+      <c r="F46">
+        <v>0.01329182619251717</v>
+      </c>
+      <c r="G46">
+        <v>-0.05722640854545</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.09557387445117875</v>
+        <v>-0.09561059099084555</v>
       </c>
       <c r="C47">
-        <v>-0.07152848483247193</v>
+        <v>0.08217961799469532</v>
       </c>
       <c r="D47">
-        <v>-0.03533906579415272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.008884089160147483</v>
+      </c>
+      <c r="E47">
+        <v>-0.06653475934787591</v>
+      </c>
+      <c r="F47">
+        <v>-0.02589857325205693</v>
+      </c>
+      <c r="G47">
+        <v>-0.06392724773066298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02573200505908359</v>
+        <v>-0.02113381399140956</v>
       </c>
       <c r="C48">
-        <v>-0.01213922527308387</v>
+        <v>0.01605329910867746</v>
       </c>
       <c r="D48">
-        <v>-0.00425858941768903</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.03197745120268926</v>
+      </c>
+      <c r="E48">
+        <v>-0.09320338615680554</v>
+      </c>
+      <c r="F48">
+        <v>0.0005748216902672237</v>
+      </c>
+      <c r="G48">
+        <v>-0.03778365905076439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08525794814313427</v>
+        <v>-0.07344913470811301</v>
       </c>
       <c r="C50">
-        <v>-0.09133570212627039</v>
+        <v>0.07778049032344853</v>
       </c>
       <c r="D50">
-        <v>-0.03429330636449818</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.01121396960881055</v>
+      </c>
+      <c r="E50">
+        <v>-0.08468916207464769</v>
+      </c>
+      <c r="F50">
+        <v>-0.05650158677532262</v>
+      </c>
+      <c r="G50">
+        <v>-0.01351618412375209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01875964450219373</v>
+        <v>-0.01431082932109149</v>
       </c>
       <c r="C51">
-        <v>-0.05016680303057096</v>
+        <v>0.03016380460126088</v>
       </c>
       <c r="D51">
-        <v>0.06794705583398007</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.07795914478195229</v>
+      </c>
+      <c r="E51">
+        <v>-0.07286345187905625</v>
+      </c>
+      <c r="F51">
+        <v>0.01038035550704964</v>
+      </c>
+      <c r="G51">
+        <v>-0.004665135292729237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08665178668418</v>
+        <v>-0.1002603628944675</v>
       </c>
       <c r="C53">
-        <v>-0.08103560242354545</v>
+        <v>0.08865991045666122</v>
       </c>
       <c r="D53">
-        <v>-0.05720784078422487</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.04776642756284797</v>
+      </c>
+      <c r="E53">
+        <v>-0.08923700130122567</v>
+      </c>
+      <c r="F53">
+        <v>-0.02139019445241229</v>
+      </c>
+      <c r="G53">
+        <v>-0.07653438730511671</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.04240959446759712</v>
+        <v>-0.03309659965442112</v>
       </c>
       <c r="C54">
-        <v>-0.03479442453350843</v>
+        <v>0.03297374979031475</v>
       </c>
       <c r="D54">
-        <v>0.02134167312387777</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.05064589059831256</v>
+      </c>
+      <c r="E54">
+        <v>-0.08385286710468211</v>
+      </c>
+      <c r="F54">
+        <v>0.003053611013268922</v>
+      </c>
+      <c r="G54">
+        <v>-0.03470827545162306</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.08515801706704312</v>
+        <v>-0.09314746525206993</v>
       </c>
       <c r="C55">
-        <v>-0.05783241651327641</v>
+        <v>0.06990405303216743</v>
       </c>
       <c r="D55">
-        <v>-0.05824518062945374</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04804453955965004</v>
+      </c>
+      <c r="E55">
+        <v>-0.05452875237687585</v>
+      </c>
+      <c r="F55">
+        <v>-0.03327951034520926</v>
+      </c>
+      <c r="G55">
+        <v>-0.03716163915610082</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1464335690380269</v>
+        <v>-0.1514785044193901</v>
       </c>
       <c r="C56">
-        <v>-0.0879440368592454</v>
+        <v>0.1052334819766296</v>
       </c>
       <c r="D56">
-        <v>-0.06230034370709762</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05621980540931636</v>
+      </c>
+      <c r="E56">
+        <v>-0.04564670897848763</v>
+      </c>
+      <c r="F56">
+        <v>-0.02646834027546897</v>
+      </c>
+      <c r="G56">
+        <v>-0.05359469288705431</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.05452343760812099</v>
+        <v>-0.04225980624410221</v>
       </c>
       <c r="C58">
-        <v>-0.02204286216792394</v>
+        <v>0.02457861206139712</v>
       </c>
       <c r="D58">
-        <v>0.2443567051222424</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2859643158591285</v>
+      </c>
+      <c r="E58">
+        <v>-0.3198697022707682</v>
+      </c>
+      <c r="F58">
+        <v>-0.1288852635547984</v>
+      </c>
+      <c r="G58">
+        <v>0.4807190827471011</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1295802881079665</v>
+        <v>-0.146520302325323</v>
       </c>
       <c r="C59">
-        <v>0.203647172825274</v>
+        <v>-0.1912919949811597</v>
       </c>
       <c r="D59">
-        <v>0.04206612298217751</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03888812856315784</v>
+      </c>
+      <c r="E59">
+        <v>-0.03046188849267184</v>
+      </c>
+      <c r="F59">
+        <v>0.0282577718187828</v>
+      </c>
+      <c r="G59">
+        <v>0.01266424920376098</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2797843513474561</v>
+        <v>-0.2571744347470569</v>
       </c>
       <c r="C60">
-        <v>-0.1027734642863298</v>
+        <v>0.09497388465557226</v>
       </c>
       <c r="D60">
-        <v>0.2322143958778899</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2232570093658704</v>
+      </c>
+      <c r="E60">
+        <v>0.2616461974913344</v>
+      </c>
+      <c r="F60">
+        <v>-0.118080562421835</v>
+      </c>
+      <c r="G60">
+        <v>0.02411065843574144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.05186811859281416</v>
+        <v>-0.04693720649958142</v>
       </c>
       <c r="C61">
-        <v>-0.0550181972206473</v>
+        <v>0.05645842219797736</v>
       </c>
       <c r="D61">
-        <v>0.04107576191082197</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0608285157366051</v>
+      </c>
+      <c r="E61">
+        <v>-0.06386905598176884</v>
+      </c>
+      <c r="F61">
+        <v>-0.002079790262497619</v>
+      </c>
+      <c r="G61">
+        <v>-0.04543220070553399</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01819222756462989</v>
+        <v>-0.01814556073095679</v>
       </c>
       <c r="C63">
-        <v>-0.03317280556805739</v>
+        <v>0.03038916638731226</v>
       </c>
       <c r="D63">
-        <v>0.0001826194453194321</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.03764245988165812</v>
+      </c>
+      <c r="E63">
+        <v>-0.08461616663483672</v>
+      </c>
+      <c r="F63">
+        <v>-0.02287861062260741</v>
+      </c>
+      <c r="G63">
+        <v>-0.01696326348307405</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.05493887548411875</v>
+        <v>-0.0586854215466082</v>
       </c>
       <c r="C64">
-        <v>-0.04973354702586222</v>
+        <v>0.06262459766578755</v>
       </c>
       <c r="D64">
-        <v>0.02067197572126542</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02489553515120323</v>
+      </c>
+      <c r="E64">
+        <v>-0.05557956331039688</v>
+      </c>
+      <c r="F64">
+        <v>0.01162061255875729</v>
+      </c>
+      <c r="G64">
+        <v>-0.0753690642834236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.07568655253618768</v>
+        <v>-0.0628327924603624</v>
       </c>
       <c r="C65">
-        <v>-0.02904350771467883</v>
+        <v>0.02582652162653335</v>
       </c>
       <c r="D65">
-        <v>0.06558111394015481</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1001558328388982</v>
+      </c>
+      <c r="E65">
+        <v>-0.05216260816465144</v>
+      </c>
+      <c r="F65">
+        <v>-0.01993318557460352</v>
+      </c>
+      <c r="G65">
+        <v>0.02795678718347601</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06387088826241434</v>
+        <v>-0.05641335826022705</v>
       </c>
       <c r="C66">
-        <v>-0.08002102859317214</v>
+        <v>0.07773570759150746</v>
       </c>
       <c r="D66">
-        <v>0.06447568335646363</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.09566799620439052</v>
+      </c>
+      <c r="E66">
+        <v>-0.0741023269581217</v>
+      </c>
+      <c r="F66">
+        <v>-0.00122356049722666</v>
+      </c>
+      <c r="G66">
+        <v>-0.0249468623122789</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05398697817707904</v>
+        <v>-0.04446765666055016</v>
       </c>
       <c r="C67">
-        <v>-0.03329483340135091</v>
+        <v>0.02956644206760012</v>
       </c>
       <c r="D67">
-        <v>-0.0126050734372479</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01428150449273944</v>
+      </c>
+      <c r="E67">
+        <v>-0.0324366183998822</v>
+      </c>
+      <c r="F67">
+        <v>-0.007649084482793635</v>
+      </c>
+      <c r="G67">
+        <v>0.006465948253267938</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1365754548462955</v>
+        <v>-0.1552291469688658</v>
       </c>
       <c r="C68">
-        <v>0.280724082457349</v>
+        <v>-0.2392817500455289</v>
       </c>
       <c r="D68">
-        <v>-0.006237808835931087</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.00540693625909171</v>
+      </c>
+      <c r="E68">
+        <v>-0.05220304330482329</v>
+      </c>
+      <c r="F68">
+        <v>-0.01946931361251087</v>
+      </c>
+      <c r="G68">
+        <v>0.01589443606075055</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.09588405392223406</v>
+        <v>-0.09072179510598417</v>
       </c>
       <c r="C69">
-        <v>-0.07900486133703838</v>
+        <v>0.09179982436709461</v>
       </c>
       <c r="D69">
-        <v>-0.03632735666555303</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.001881558983187047</v>
+      </c>
+      <c r="E69">
+        <v>-0.07579807476589799</v>
+      </c>
+      <c r="F69">
+        <v>-0.007459711404500398</v>
+      </c>
+      <c r="G69">
+        <v>-0.0592960673864213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1223340160584494</v>
+        <v>-0.1482569838908741</v>
       </c>
       <c r="C71">
-        <v>0.2516634941205577</v>
+        <v>-0.2381159399249626</v>
       </c>
       <c r="D71">
-        <v>0.02615105604910426</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01657955741189027</v>
+      </c>
+      <c r="E71">
+        <v>-0.06675506736345176</v>
+      </c>
+      <c r="F71">
+        <v>-0.0287429388584789</v>
+      </c>
+      <c r="G71">
+        <v>-0.04872918891362516</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1018555370146673</v>
+        <v>-0.1068243589942285</v>
       </c>
       <c r="C72">
-        <v>-0.05345499858090869</v>
+        <v>0.05279654079920706</v>
       </c>
       <c r="D72">
-        <v>0.02932487291435409</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.05878608808331804</v>
+      </c>
+      <c r="E72">
+        <v>-0.04066947677396628</v>
+      </c>
+      <c r="F72">
+        <v>-0.03912997286099973</v>
+      </c>
+      <c r="G72">
+        <v>-0.0544689374097681</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.3557607145171053</v>
+        <v>-0.3090792468632467</v>
       </c>
       <c r="C73">
-        <v>-0.07105821551075946</v>
+        <v>0.07432209911223404</v>
       </c>
       <c r="D73">
-        <v>0.516167139445757</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4478029654282744</v>
+      </c>
+      <c r="E73">
+        <v>0.5519458148818301</v>
+      </c>
+      <c r="F73">
+        <v>-0.1502651317357398</v>
+      </c>
+      <c r="G73">
+        <v>0.03373224647763298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1033112894890591</v>
+        <v>-0.1091344699587369</v>
       </c>
       <c r="C74">
-        <v>-0.09016523533298326</v>
+        <v>0.08951649267986167</v>
       </c>
       <c r="D74">
-        <v>-0.04217953804820162</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03981849936364754</v>
+      </c>
+      <c r="E74">
+        <v>-0.06778613276581288</v>
+      </c>
+      <c r="F74">
+        <v>-0.04057112705950734</v>
+      </c>
+      <c r="G74">
+        <v>-0.0317185621136772</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2495151782895585</v>
+        <v>-0.2539320522765763</v>
       </c>
       <c r="C75">
-        <v>-0.09629003888827671</v>
+        <v>0.1264803784299222</v>
       </c>
       <c r="D75">
-        <v>-0.1594291259916973</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1602631850900369</v>
+      </c>
+      <c r="E75">
+        <v>-0.01676093747178227</v>
+      </c>
+      <c r="F75">
+        <v>-0.002201894677910007</v>
+      </c>
+      <c r="G75">
+        <v>-0.04544290068666614</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1158132525484013</v>
+        <v>-0.1294157128019703</v>
       </c>
       <c r="C76">
-        <v>-0.0802805962851478</v>
+        <v>0.09073577144388975</v>
       </c>
       <c r="D76">
-        <v>-0.08216878925910215</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07221553316936832</v>
+      </c>
+      <c r="E76">
+        <v>-0.09391448873333312</v>
+      </c>
+      <c r="F76">
+        <v>-0.008789252708052279</v>
+      </c>
+      <c r="G76">
+        <v>-0.05037166785041572</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.08471317419532121</v>
+        <v>-0.06824276952873881</v>
       </c>
       <c r="C77">
-        <v>-0.03725245088487829</v>
+        <v>0.06033112770399646</v>
       </c>
       <c r="D77">
-        <v>0.06802069968301391</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.08737668872487166</v>
+      </c>
+      <c r="E77">
+        <v>-0.122898405367728</v>
+      </c>
+      <c r="F77">
+        <v>0.2201470887954172</v>
+      </c>
+      <c r="G77">
+        <v>0.1030179592550955</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.0456448849778343</v>
+        <v>-0.04708450148216244</v>
       </c>
       <c r="C78">
-        <v>-0.04554568818336535</v>
+        <v>0.05581816025208629</v>
       </c>
       <c r="D78">
-        <v>0.06171163007232836</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.09001056549501393</v>
+      </c>
+      <c r="E78">
+        <v>-0.07867997498950843</v>
+      </c>
+      <c r="F78">
+        <v>-0.005586487685272973</v>
+      </c>
+      <c r="G78">
+        <v>-0.03647985693764508</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.001458841794359351</v>
+        <v>-0.03720371342885547</v>
       </c>
       <c r="C79">
-        <v>0.0001261169797292721</v>
+        <v>0.05353930169344912</v>
       </c>
       <c r="D79">
-        <v>0.007429838708246096</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.08806222799884177</v>
+      </c>
+      <c r="E79">
+        <v>-0.0860642900125085</v>
+      </c>
+      <c r="F79">
+        <v>-0.04267472965290979</v>
+      </c>
+      <c r="G79">
+        <v>-0.2917036119970225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03727162041973876</v>
+        <v>-0.03095287061285109</v>
       </c>
       <c r="C80">
-        <v>-0.04734567919798582</v>
+        <v>0.04725860153903697</v>
       </c>
       <c r="D80">
-        <v>0.03446170350528766</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04178137585378852</v>
+      </c>
+      <c r="E80">
+        <v>-0.01767412404021701</v>
+      </c>
+      <c r="F80">
+        <v>0.05051719802761631</v>
+      </c>
+      <c r="G80">
+        <v>0.01449218444078527</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1482951954908704</v>
+        <v>-0.1430482449868663</v>
       </c>
       <c r="C81">
-        <v>-0.07200186767943131</v>
+        <v>0.09219840399711571</v>
       </c>
       <c r="D81">
-        <v>-0.1374595087000864</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1258125638460706</v>
+      </c>
+      <c r="E81">
+        <v>-0.06557219214375132</v>
+      </c>
+      <c r="F81">
+        <v>-0.00643352194234805</v>
+      </c>
+      <c r="G81">
+        <v>-0.04108990987652057</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.2250135407284365</v>
+        <v>-0.241511511685834</v>
       </c>
       <c r="C82">
-        <v>-0.1094870273465417</v>
+        <v>0.1718708163316319</v>
       </c>
       <c r="D82">
-        <v>-0.2118580996459199</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.250057273058901</v>
+      </c>
+      <c r="E82">
+        <v>0.076778487917808</v>
+      </c>
+      <c r="F82">
+        <v>0.03592899833616901</v>
+      </c>
+      <c r="G82">
+        <v>-0.3642756773777003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.04222422522640665</v>
+        <v>-0.02880440839889061</v>
       </c>
       <c r="C83">
-        <v>-0.03897451869661445</v>
+        <v>0.04762340208406191</v>
       </c>
       <c r="D83">
-        <v>0.05217918481780889</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03619236356191234</v>
+      </c>
+      <c r="E83">
+        <v>-0.03048308532587056</v>
+      </c>
+      <c r="F83">
+        <v>0.02325730910062357</v>
+      </c>
+      <c r="G83">
+        <v>0.002091618104966051</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-2.374052637847123e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.002251356741049675</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0005044624799181175</v>
+      </c>
+      <c r="E84">
+        <v>-0.009246822522198205</v>
+      </c>
+      <c r="F84">
+        <v>-0.002246219710290032</v>
+      </c>
+      <c r="G84">
+        <v>0.009437541825679957</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1929339250755353</v>
+        <v>-0.1836679798153608</v>
       </c>
       <c r="C85">
-        <v>-0.09426567128907325</v>
+        <v>0.1095358978261003</v>
       </c>
       <c r="D85">
-        <v>-0.1453790525515341</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.12915516729938</v>
+      </c>
+      <c r="E85">
+        <v>0.004614478179635464</v>
+      </c>
+      <c r="F85">
+        <v>-0.04521552666478831</v>
+      </c>
+      <c r="G85">
+        <v>-0.09236334759983193</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01445095654691426</v>
+        <v>-0.01799053175672181</v>
       </c>
       <c r="C86">
-        <v>-0.02941943062919949</v>
+        <v>0.01876743835000274</v>
       </c>
       <c r="D86">
-        <v>0.06909641420078298</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0897033039666737</v>
+      </c>
+      <c r="E86">
+        <v>-0.09360946088792307</v>
+      </c>
+      <c r="F86">
+        <v>0.01490972184270362</v>
+      </c>
+      <c r="G86">
+        <v>-0.04241188886665391</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.03485811983802752</v>
+        <v>-0.0345280066477263</v>
       </c>
       <c r="C87">
-        <v>-0.003276295066929447</v>
+        <v>0.01683653437302805</v>
       </c>
       <c r="D87">
-        <v>0.08471028331355011</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1079202714730279</v>
+      </c>
+      <c r="E87">
+        <v>-0.1333050795025427</v>
+      </c>
+      <c r="F87">
+        <v>0.05132894869714501</v>
+      </c>
+      <c r="G87">
+        <v>0.03656916875321551</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1152833079882719</v>
+        <v>-0.09698803608504214</v>
       </c>
       <c r="C88">
-        <v>-0.09342730635955297</v>
+        <v>0.07234093008595419</v>
       </c>
       <c r="D88">
-        <v>-0.01067282360773236</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02402766209158499</v>
+      </c>
+      <c r="E88">
+        <v>-0.04344982039815872</v>
+      </c>
+      <c r="F88">
+        <v>0.009296344385360812</v>
+      </c>
+      <c r="G88">
+        <v>-0.03903716587282966</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1955134112716638</v>
+        <v>-0.2255270887194766</v>
       </c>
       <c r="C89">
-        <v>0.3717826316522262</v>
+        <v>-0.3777893600497542</v>
       </c>
       <c r="D89">
-        <v>-0.01901478947163968</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.003445802081295746</v>
+      </c>
+      <c r="E89">
+        <v>-0.07870862968545775</v>
+      </c>
+      <c r="F89">
+        <v>0.07759119880765865</v>
+      </c>
+      <c r="G89">
+        <v>-0.01862003971346084</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1842419365590791</v>
+        <v>-0.2038650872509951</v>
       </c>
       <c r="C90">
-        <v>0.3297050967293669</v>
+        <v>-0.3062399445374683</v>
       </c>
       <c r="D90">
-        <v>-0.02148380080702776</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004249368838445717</v>
+      </c>
+      <c r="E90">
+        <v>-0.05973742692385011</v>
+      </c>
+      <c r="F90">
+        <v>-0.003444233167101526</v>
+      </c>
+      <c r="G90">
+        <v>0.01828740992021097</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1913569367492113</v>
+        <v>-0.1868360836179067</v>
       </c>
       <c r="C91">
-        <v>-0.1288710217342349</v>
+        <v>0.1442512568858608</v>
       </c>
       <c r="D91">
-        <v>-0.1455835101592699</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1307536095035472</v>
+      </c>
+      <c r="E91">
+        <v>-0.05121609154271248</v>
+      </c>
+      <c r="F91">
+        <v>-0.009644165701009698</v>
+      </c>
+      <c r="G91">
+        <v>-0.04209439512979549</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1667767081190153</v>
+        <v>-0.1839832416247822</v>
       </c>
       <c r="C92">
-        <v>0.2864004685274225</v>
+        <v>-0.2937594113500884</v>
       </c>
       <c r="D92">
-        <v>-0.01382097281307553</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.005514388070640819</v>
+      </c>
+      <c r="E92">
+        <v>-0.08868247697538245</v>
+      </c>
+      <c r="F92">
+        <v>0.03072013556087116</v>
+      </c>
+      <c r="G92">
+        <v>-0.03584392053118798</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2000614609155747</v>
+        <v>-0.2197630681961236</v>
       </c>
       <c r="C93">
-        <v>0.3391750207881617</v>
+        <v>-0.3165452343798064</v>
       </c>
       <c r="D93">
-        <v>-0.02922106245922774</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0158711723315299</v>
+      </c>
+      <c r="E93">
+        <v>-0.0382294347060772</v>
+      </c>
+      <c r="F93">
+        <v>-0.02517932157596723</v>
+      </c>
+      <c r="G93">
+        <v>-0.03199026822045124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3579554729992874</v>
+        <v>-0.3465935796222531</v>
       </c>
       <c r="C94">
-        <v>-0.1332134190236702</v>
+        <v>0.1804711958324292</v>
       </c>
       <c r="D94">
-        <v>-0.4927258983911892</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4417361260915703</v>
+      </c>
+      <c r="E94">
+        <v>0.05697940222420891</v>
+      </c>
+      <c r="F94">
+        <v>0.1068464284677968</v>
+      </c>
+      <c r="G94">
+        <v>0.6399445268415018</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.11171204778539</v>
+        <v>-0.0820934019797455</v>
       </c>
       <c r="C95">
-        <v>-0.04529450411119413</v>
+        <v>0.05761639802669355</v>
       </c>
       <c r="D95">
-        <v>0.259056758293288</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.2100812334158248</v>
+      </c>
+      <c r="E95">
+        <v>0.08750111746840548</v>
+      </c>
+      <c r="F95">
+        <v>0.9043620571287373</v>
+      </c>
+      <c r="G95">
+        <v>-0.03669608795989331</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1847803939691379</v>
+        <v>-0.1824947506248929</v>
       </c>
       <c r="C98">
-        <v>-0.03305960125298685</v>
+        <v>0.05050021944502299</v>
       </c>
       <c r="D98">
-        <v>0.2218945992699762</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2079340205315019</v>
+      </c>
+      <c r="E98">
+        <v>0.1848437900292245</v>
+      </c>
+      <c r="F98">
+        <v>-0.1230403953170869</v>
+      </c>
+      <c r="G98">
+        <v>-0.01594664953100767</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.0109585887019683</v>
+        <v>-0.008537527367106097</v>
       </c>
       <c r="C101">
-        <v>-0.02673564313878795</v>
+        <v>0.02639635777767921</v>
       </c>
       <c r="D101">
-        <v>0.008815349687544832</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.04143450743096333</v>
+      </c>
+      <c r="E101">
+        <v>-0.08288940980758765</v>
+      </c>
+      <c r="F101">
+        <v>-0.0007377299882927724</v>
+      </c>
+      <c r="G101">
+        <v>-0.03783546219365042</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1184158967816299</v>
+        <v>-0.1203696257692987</v>
       </c>
       <c r="C102">
-        <v>-0.06675856764504216</v>
+        <v>0.1006166978951099</v>
       </c>
       <c r="D102">
-        <v>-0.06243177172484155</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06347707400345481</v>
+      </c>
+      <c r="E102">
+        <v>0.003449286886274647</v>
+      </c>
+      <c r="F102">
+        <v>0.02545663282292664</v>
+      </c>
+      <c r="G102">
+        <v>-0.05928345804599967</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
